--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model Pre Covid)/summary_stats_new_model_pre_covid.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model Pre Covid)/summary_stats_new_model_pre_covid.xlsx
@@ -466,13 +466,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4383592423379775</v>
+        <v>0.3722953123108511</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0118123762007436</v>
+        <v>0.0375709876056648</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1020268295386794</v>
+        <v>0.2038778870448679</v>
       </c>
     </row>
     <row r="3">
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5616407576620225</v>
+        <v>0.6277046876891491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001405223215677598</v>
+        <v>0.0005849359769788398</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02188088284301626</v>
+        <v>0.009738269739774319</v>
       </c>
     </row>
     <row r="4">
@@ -498,13 +498,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.545855126920648</v>
+        <v>0.9350721716138088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1071981517964651</v>
+        <v>0.02290531386640571</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007196399103734374</v>
+        <v>0.00403747700756496</v>
       </c>
     </row>
     <row r="5">
@@ -514,29 +514,29 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06190727198670286</v>
+        <v>0.05689827179900782</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5328727914208535</v>
+        <v>0.5612813194589905</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8785680251127777</v>
+        <v>0.9395067748520566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>l1.gcu through l4.gcu [NEW]</t>
+          <t>l1.cu through l4.cu [NEW]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.04927438507969328</v>
+        <v>-5.261071374112867</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1236507117353663</v>
+        <v>0.07331576495718828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2921402815004039</v>
+        <v>0.1774933718846385</v>
       </c>
     </row>
     <row r="7">
@@ -546,11 +546,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06760329071576025</v>
+        <v>-0.01347049222924166</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>0.3144002996421228</v>
+        <v>0.8658659009534112</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5928409920683982</v>
+        <v>0.5901727893643107</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5726228392444359</v>
+        <v>0.5934328645957667</v>
       </c>
       <c r="C2" t="n">
-        <v>3.072906383865932e-05</v>
+        <v>1.364928244292712e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0002217231224067183</v>
+        <v>0.0001104115643712662</v>
       </c>
     </row>
     <row r="3">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.088055924830122</v>
+        <v>0.6441593260346277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.310481901381304</v>
+        <v>0.1219970040973704</v>
       </c>
       <c r="D3" t="n">
-        <v>4.134853793981501e-05</v>
+        <v>2.330505244000601e-05</v>
       </c>
     </row>
     <row r="4">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.959255145789188</v>
+        <v>3.451610643570783</v>
       </c>
       <c r="C4" t="n">
-        <v>5.633554804655667e-05</v>
+        <v>0.000117755333319263</v>
       </c>
       <c r="D4" t="n">
-        <v>1.439655649403873e-08</v>
+        <v>1.757868254029796e-06</v>
       </c>
     </row>
     <row r="5">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.565452486049582</v>
+        <v>1.584386119635976</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.264077515957061</v>
+        <v>8.489644988493685</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8257841617704863</v>
+        <v>0.8283903887112369</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>

--- a/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model Pre Covid)/summary_stats_new_model_pre_covid.xlsx
+++ b/Replication Package/Code and Data/(2) Regressions/Output Data Python (New Model Pre Covid)/summary_stats_new_model_pre_covid.xlsx
@@ -631,13 +631,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5934328645957667</v>
+        <v>0.5934328645957652</v>
       </c>
       <c r="C2" t="n">
-        <v>1.364928244292712e-05</v>
+        <v>1.364928244292737e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001104115643712662</v>
+        <v>0.0001104115643712736</v>
       </c>
     </row>
     <row r="3">
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6441593260346277</v>
+        <v>15.37602248253422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1219970040973704</v>
+        <v>0.1219970040973848</v>
       </c>
       <c r="D3" t="n">
-        <v>2.330505244000601e-05</v>
+        <v>2.330505244000491e-05</v>
       </c>
     </row>
     <row r="4">
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.451610643570783</v>
+        <v>3.451610643570803</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000117755333319263</v>
+        <v>0.0001177553333192535</v>
       </c>
       <c r="D4" t="n">
-        <v>1.757868254029796e-06</v>
+        <v>1.757868254029659e-06</v>
       </c>
     </row>
     <row r="5">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.584386119635976</v>
+        <v>37.81914754926367</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.489644988493685</v>
+        <v>8.489644988493703</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
